--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema3c-Nrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema3c-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>39.3571798890328</v>
+        <v>0.317833</v>
       </c>
       <c r="H2">
-        <v>39.3571798890328</v>
+        <v>0.953499</v>
       </c>
       <c r="I2">
-        <v>0.9656846568466421</v>
+        <v>0.00735622594276287</v>
       </c>
       <c r="J2">
-        <v>0.9656846568466421</v>
+        <v>0.007356225942762871</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N2">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O2">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P2">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q2">
-        <v>2830.927731865544</v>
+        <v>27.95064063435133</v>
       </c>
       <c r="R2">
-        <v>2830.927731865544</v>
+        <v>251.555765709162</v>
       </c>
       <c r="S2">
-        <v>0.354693859502384</v>
+        <v>0.003022916910094692</v>
       </c>
       <c r="T2">
-        <v>0.354693859502384</v>
+        <v>0.003022916910094692</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>39.3571798890328</v>
+        <v>0.317833</v>
       </c>
       <c r="H3">
-        <v>39.3571798890328</v>
+        <v>0.953499</v>
       </c>
       <c r="I3">
-        <v>0.9656846568466421</v>
+        <v>0.00735622594276287</v>
       </c>
       <c r="J3">
-        <v>0.9656846568466421</v>
+        <v>0.007356225942762871</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N3">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O3">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P3">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q3">
-        <v>2063.543346413429</v>
+        <v>16.667788968843</v>
       </c>
       <c r="R3">
-        <v>2063.543346413429</v>
+        <v>150.010100719587</v>
       </c>
       <c r="S3">
-        <v>0.2585463929549039</v>
+        <v>0.001802654249930919</v>
       </c>
       <c r="T3">
-        <v>0.2585463929549039</v>
+        <v>0.001802654249930919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>39.3571798890328</v>
+        <v>0.317833</v>
       </c>
       <c r="H4">
-        <v>39.3571798890328</v>
+        <v>0.953499</v>
       </c>
       <c r="I4">
-        <v>0.9656846568466421</v>
+        <v>0.00735622594276287</v>
       </c>
       <c r="J4">
-        <v>0.9656846568466421</v>
+        <v>0.007356225942762871</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N4">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O4">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P4">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q4">
-        <v>2082.425783598098</v>
+        <v>17.375122496347</v>
       </c>
       <c r="R4">
-        <v>2082.425783598098</v>
+        <v>156.376102467123</v>
       </c>
       <c r="S4">
-        <v>0.2609122196930624</v>
+        <v>0.001879153765964942</v>
       </c>
       <c r="T4">
-        <v>0.2609122196930624</v>
+        <v>0.001879153765964942</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>39.3571798890328</v>
+        <v>0.317833</v>
       </c>
       <c r="H5">
-        <v>39.3571798890328</v>
+        <v>0.953499</v>
       </c>
       <c r="I5">
-        <v>0.9656846568466421</v>
+        <v>0.00735622594276287</v>
       </c>
       <c r="J5">
-        <v>0.9656846568466421</v>
+        <v>0.007356225942762871</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.5620085878621</v>
+        <v>18.95316166666667</v>
       </c>
       <c r="N5">
-        <v>18.5620085878621</v>
+        <v>56.85948500000001</v>
       </c>
       <c r="O5">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691947</v>
       </c>
       <c r="P5">
-        <v>0.09478475612855036</v>
+        <v>0.08856457398691944</v>
       </c>
       <c r="Q5">
-        <v>730.5483110942603</v>
+        <v>6.023940232001667</v>
       </c>
       <c r="R5">
-        <v>730.5483110942603</v>
+        <v>54.215462088015</v>
       </c>
       <c r="S5">
-        <v>0.0915321846962918</v>
+        <v>0.0006515010167723186</v>
       </c>
       <c r="T5">
-        <v>0.0915321846962918</v>
+        <v>0.0006515010167723185</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.39854674490813</v>
+        <v>40.98656233333333</v>
       </c>
       <c r="H6">
-        <v>1.39854674490813</v>
+        <v>122.959687</v>
       </c>
       <c r="I6">
-        <v>0.03431534315335787</v>
+        <v>0.9486315553801341</v>
       </c>
       <c r="J6">
-        <v>0.03431534315335787</v>
+        <v>0.9486315553801342</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>71.9291305893186</v>
+        <v>87.94127933333334</v>
       </c>
       <c r="N6">
-        <v>71.9291305893186</v>
+        <v>263.823838</v>
       </c>
       <c r="O6">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514438</v>
       </c>
       <c r="P6">
-        <v>0.3672978098881735</v>
+        <v>0.4109331243514437</v>
       </c>
       <c r="Q6">
-        <v>100.5962514497633</v>
+        <v>3604.410727068745</v>
       </c>
       <c r="R6">
-        <v>100.5962514497633</v>
+        <v>32439.69654361871</v>
       </c>
       <c r="S6">
-        <v>0.01260395038578947</v>
+        <v>0.3898241289107282</v>
       </c>
       <c r="T6">
-        <v>0.01260395038578947</v>
+        <v>0.3898241289107282</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.39854674490813</v>
+        <v>40.98656233333333</v>
       </c>
       <c r="H7">
-        <v>1.39854674490813</v>
+        <v>122.959687</v>
       </c>
       <c r="I7">
-        <v>0.03431534315335787</v>
+        <v>0.9486315553801341</v>
       </c>
       <c r="J7">
-        <v>0.03431534315335787</v>
+        <v>0.9486315553801342</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.4311790690179</v>
+        <v>52.441971</v>
       </c>
       <c r="N7">
-        <v>52.4311790690179</v>
+        <v>157.325913</v>
       </c>
       <c r="O7">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683088</v>
       </c>
       <c r="P7">
-        <v>0.2677337691158564</v>
+        <v>0.2450515065683087</v>
       </c>
       <c r="Q7">
-        <v>73.32745481867026</v>
+        <v>2149.416113274359</v>
       </c>
       <c r="R7">
-        <v>73.32745481867026</v>
+        <v>19344.74501946923</v>
       </c>
       <c r="S7">
-        <v>0.009187376160952502</v>
+        <v>0.2324635918241399</v>
       </c>
       <c r="T7">
-        <v>0.009187376160952502</v>
+        <v>0.2324635918241399</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.39854674490813</v>
+        <v>40.98656233333333</v>
       </c>
       <c r="H8">
-        <v>1.39854674490813</v>
+        <v>122.959687</v>
       </c>
       <c r="I8">
-        <v>0.03431534315335787</v>
+        <v>0.9486315553801341</v>
       </c>
       <c r="J8">
-        <v>0.03431534315335787</v>
+        <v>0.9486315553801342</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.9109501613042</v>
+        <v>54.667459</v>
       </c>
       <c r="N8">
-        <v>52.9109501613042</v>
+        <v>164.002377</v>
       </c>
       <c r="O8">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="P8">
-        <v>0.2701836648674198</v>
+        <v>0.255450795093328</v>
       </c>
       <c r="Q8">
-        <v>73.99843711808828</v>
+        <v>2240.631215908444</v>
       </c>
       <c r="R8">
-        <v>73.99843711808828</v>
+        <v>20165.680943176</v>
       </c>
       <c r="S8">
-        <v>0.009271445174357351</v>
+        <v>0.2423286850724757</v>
       </c>
       <c r="T8">
-        <v>0.009271445174357351</v>
+        <v>0.2423286850724757</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>40.98656233333333</v>
+      </c>
+      <c r="H9">
+        <v>122.959687</v>
+      </c>
+      <c r="I9">
+        <v>0.9486315553801341</v>
+      </c>
+      <c r="J9">
+        <v>0.9486315553801342</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>18.95316166666667</v>
+      </c>
+      <c r="N9">
+        <v>56.85948500000001</v>
+      </c>
+      <c r="O9">
+        <v>0.08856457398691947</v>
+      </c>
+      <c r="P9">
+        <v>0.08856457398691944</v>
+      </c>
+      <c r="Q9">
+        <v>776.8249420645774</v>
+      </c>
+      <c r="R9">
+        <v>6991.424478581196</v>
+      </c>
+      <c r="S9">
+        <v>0.08401514957279038</v>
+      </c>
+      <c r="T9">
+        <v>0.08401514957279037</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01939666666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.05819</v>
+      </c>
+      <c r="I10">
+        <v>0.0004489347000986592</v>
+      </c>
+      <c r="J10">
+        <v>0.0004489347000986592</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>87.94127933333334</v>
+      </c>
+      <c r="N10">
+        <v>263.823838</v>
+      </c>
+      <c r="O10">
+        <v>0.4109331243514438</v>
+      </c>
+      <c r="P10">
+        <v>0.4109331243514437</v>
+      </c>
+      <c r="Q10">
+        <v>1.705767681468889</v>
+      </c>
+      <c r="R10">
+        <v>15.35190913322</v>
+      </c>
+      <c r="S10">
+        <v>0.0001844821389413205</v>
+      </c>
+      <c r="T10">
+        <v>0.0001844821389413204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.01939666666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.05819</v>
+      </c>
+      <c r="I11">
+        <v>0.0004489347000986592</v>
+      </c>
+      <c r="J11">
+        <v>0.0004489347000986592</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>52.441971</v>
+      </c>
+      <c r="N11">
+        <v>157.325913</v>
+      </c>
+      <c r="O11">
+        <v>0.2450515065683088</v>
+      </c>
+      <c r="P11">
+        <v>0.2450515065683087</v>
+      </c>
+      <c r="Q11">
+        <v>1.01719943083</v>
+      </c>
+      <c r="R11">
+        <v>9.154794877470001</v>
+      </c>
+      <c r="S11">
+        <v>0.0001100121246099683</v>
+      </c>
+      <c r="T11">
+        <v>0.0001100121246099683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01939666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.05819</v>
+      </c>
+      <c r="I12">
+        <v>0.0004489347000986592</v>
+      </c>
+      <c r="J12">
+        <v>0.0004489347000986592</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>54.667459</v>
+      </c>
+      <c r="N12">
+        <v>164.002377</v>
+      </c>
+      <c r="O12">
+        <v>0.255450795093328</v>
+      </c>
+      <c r="P12">
+        <v>0.255450795093328</v>
+      </c>
+      <c r="Q12">
+        <v>1.060366479736667</v>
+      </c>
+      <c r="R12">
+        <v>9.543298317629999</v>
+      </c>
+      <c r="S12">
+        <v>0.0001146807260851873</v>
+      </c>
+      <c r="T12">
+        <v>0.0001146807260851872</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01939666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.05819</v>
+      </c>
+      <c r="I13">
+        <v>0.0004489347000986592</v>
+      </c>
+      <c r="J13">
+        <v>0.0004489347000986592</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>18.95316166666667</v>
+      </c>
+      <c r="N13">
+        <v>56.85948500000001</v>
+      </c>
+      <c r="O13">
+        <v>0.08856457398691947</v>
+      </c>
+      <c r="P13">
+        <v>0.08856457398691944</v>
+      </c>
+      <c r="Q13">
+        <v>0.3676281591277779</v>
+      </c>
+      <c r="R13">
+        <v>3.30865343215</v>
+      </c>
+      <c r="S13">
+        <v>3.975971046218321E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.975971046218319E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.882194666666667</v>
+      </c>
+      <c r="H14">
+        <v>5.646584000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.04356328397700443</v>
+      </c>
+      <c r="J14">
+        <v>0.04356328397700443</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>87.94127933333334</v>
+      </c>
+      <c r="N14">
+        <v>263.823838</v>
+      </c>
+      <c r="O14">
+        <v>0.4109331243514438</v>
+      </c>
+      <c r="P14">
+        <v>0.4109331243514437</v>
+      </c>
+      <c r="Q14">
+        <v>165.5226069410436</v>
+      </c>
+      <c r="R14">
+        <v>1489.703462469392</v>
+      </c>
+      <c r="S14">
+        <v>0.01790159639167962</v>
+      </c>
+      <c r="T14">
+        <v>0.01790159639167962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.39854674490813</v>
-      </c>
-      <c r="H9">
-        <v>1.39854674490813</v>
-      </c>
-      <c r="I9">
-        <v>0.03431534315335787</v>
-      </c>
-      <c r="J9">
-        <v>0.03431534315335787</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>18.5620085878621</v>
-      </c>
-      <c r="N9">
-        <v>18.5620085878621</v>
-      </c>
-      <c r="O9">
-        <v>0.09478475612855036</v>
-      </c>
-      <c r="P9">
-        <v>0.09478475612855036</v>
-      </c>
-      <c r="Q9">
-        <v>25.95983668951129</v>
-      </c>
-      <c r="R9">
-        <v>25.95983668951129</v>
-      </c>
-      <c r="S9">
-        <v>0.003252571432258546</v>
-      </c>
-      <c r="T9">
-        <v>0.003252571432258546</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.882194666666667</v>
+      </c>
+      <c r="H15">
+        <v>5.646584000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.04356328397700443</v>
+      </c>
+      <c r="J15">
+        <v>0.04356328397700443</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>52.441971</v>
+      </c>
+      <c r="N15">
+        <v>157.325913</v>
+      </c>
+      <c r="O15">
+        <v>0.2450515065683088</v>
+      </c>
+      <c r="P15">
+        <v>0.2450515065683087</v>
+      </c>
+      <c r="Q15">
+        <v>98.70599812568801</v>
+      </c>
+      <c r="R15">
+        <v>888.3539831311922</v>
+      </c>
+      <c r="S15">
+        <v>0.010675248369628</v>
+      </c>
+      <c r="T15">
+        <v>0.010675248369628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.882194666666667</v>
+      </c>
+      <c r="H16">
+        <v>5.646584000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.04356328397700443</v>
+      </c>
+      <c r="J16">
+        <v>0.04356328397700443</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>54.667459</v>
+      </c>
+      <c r="N16">
+        <v>164.002377</v>
+      </c>
+      <c r="O16">
+        <v>0.255450795093328</v>
+      </c>
+      <c r="P16">
+        <v>0.255450795093328</v>
+      </c>
+      <c r="Q16">
+        <v>102.8947997700187</v>
+      </c>
+      <c r="R16">
+        <v>926.053197930168</v>
+      </c>
+      <c r="S16">
+        <v>0.01112827552880222</v>
+      </c>
+      <c r="T16">
+        <v>0.01112827552880222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.882194666666667</v>
+      </c>
+      <c r="H17">
+        <v>5.646584000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.04356328397700443</v>
+      </c>
+      <c r="J17">
+        <v>0.04356328397700443</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.95316166666667</v>
+      </c>
+      <c r="N17">
+        <v>56.85948500000001</v>
+      </c>
+      <c r="O17">
+        <v>0.08856457398691947</v>
+      </c>
+      <c r="P17">
+        <v>0.08856457398691944</v>
+      </c>
+      <c r="Q17">
+        <v>35.67353980547112</v>
+      </c>
+      <c r="R17">
+        <v>321.0618582492401</v>
+      </c>
+      <c r="S17">
+        <v>0.003858163686894592</v>
+      </c>
+      <c r="T17">
+        <v>0.003858163686894591</v>
       </c>
     </row>
   </sheetData>
